--- a/บัญชี+สต๊อกสินค้า อัพเดท27-05-2022.xlsx
+++ b/บัญชี+สต๊อกสินค้า อัพเดท27-05-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10860" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10860" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="วัตถุดิบ" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="96">
   <si>
     <t>รายงาน ซื้อ ขาย สินค้า</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>แม่ทีม</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -874,7 +880,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1224,6 +1230,9 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3178,7 +3187,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F7"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -4997,7 +5006,7 @@
   <dimension ref="B1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5071,10 +5080,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="65">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M3" s="66">
-        <v>5700</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -5163,11 +5172,11 @@
       </c>
       <c r="L6" s="65">
         <f>SUM(L3:L5)</f>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="M6" s="66">
         <f>SUM(M3:M5)</f>
-        <v>16950</v>
+        <v>28250</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5192,7 +5201,7 @@
       </c>
       <c r="L7" s="120">
         <f>L6*10</f>
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="M7" s="121"/>
     </row>
@@ -12852,7 +12861,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5:I6"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -14778,16 +14787,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" filterMode="1">
+  <sheetPr codeName="Sheet8">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F15"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -15249,7 +15258,7 @@
       <c r="Q11" s="106"/>
       <c r="R11" s="107"/>
     </row>
-    <row r="12" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>7</v>
       </c>
@@ -15297,7 +15306,7 @@
       <c r="Q12" s="100"/>
       <c r="R12" s="101"/>
     </row>
-    <row r="13" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>8</v>
       </c>
@@ -15351,7 +15360,9 @@
       <c r="C14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="E14" s="22">
         <v>160</v>
       </c>
@@ -15366,11 +15377,12 @@
         <v>350</v>
       </c>
       <c r="I14" s="22">
-        <v>299</v>
+        <f t="shared" ref="I14:I15" si="6">+F14*H14</f>
+        <v>350</v>
       </c>
       <c r="J14" s="22">
-        <f t="shared" ref="J14:J47" si="6">+I14-G14</f>
-        <v>139</v>
+        <f>+I14-G14</f>
+        <v>190</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>19</v>
@@ -15398,7 +15410,9 @@
       <c r="C15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="E15" s="22">
         <v>160</v>
       </c>
@@ -15413,11 +15427,12 @@
         <v>350</v>
       </c>
       <c r="I15" s="22">
-        <v>290</v>
+        <f t="shared" si="6"/>
+        <v>350</v>
       </c>
       <c r="J15" s="22">
-        <f t="shared" si="6"/>
-        <v>130</v>
+        <f t="shared" ref="J14:J47" si="7">+I15-G15</f>
+        <v>190</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>19</v>
@@ -15437,29 +15452,41 @@
       <c r="Q15" s="100"/>
       <c r="R15" s="101"/>
     </row>
-    <row r="16" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>11</v>
       </c>
       <c r="B16" s="54"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="C16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="22">
+        <v>160</v>
+      </c>
+      <c r="F16" s="23">
+        <v>4</v>
+      </c>
       <c r="G16" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="22"/>
+        <v>640</v>
+      </c>
+      <c r="H16" s="22">
+        <v>215</v>
+      </c>
       <c r="I16" s="22">
         <f>+F16*H16</f>
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="J16" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="18"/>
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="L16" s="56"/>
       <c r="M16" s="61"/>
       <c r="N16" s="22"/>
@@ -15471,29 +15498,41 @@
       <c r="Q16" s="100"/>
       <c r="R16" s="101"/>
     </row>
-    <row r="17" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>12</v>
       </c>
       <c r="B17" s="54"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="22">
+        <v>160</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
       <c r="G17" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="22"/>
+        <v>160</v>
+      </c>
+      <c r="H17" s="22">
+        <v>215</v>
+      </c>
       <c r="I17" s="22">
         <f>+F17*H17</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="J17" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="18"/>
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="L17" s="56"/>
       <c r="M17" s="61"/>
       <c r="N17" s="22"/>
@@ -15505,29 +15544,41 @@
       <c r="Q17" s="100"/>
       <c r="R17" s="101"/>
     </row>
-    <row r="18" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>13</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="22">
+        <v>160</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
       <c r="G18" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22"/>
+        <v>160</v>
+      </c>
+      <c r="H18" s="22">
+        <v>215</v>
+      </c>
       <c r="I18" s="22">
-        <f t="shared" ref="I18:I47" si="7">+F18*H18</f>
-        <v>0</v>
+        <f t="shared" ref="I18:I47" si="8">+F18*H18</f>
+        <v>215</v>
       </c>
       <c r="J18" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="18"/>
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="L18" s="56"/>
       <c r="M18" s="61"/>
       <c r="N18" s="22"/>
@@ -15539,7 +15590,7 @@
       <c r="Q18" s="100"/>
       <c r="R18" s="101"/>
     </row>
-    <row r="19" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>14</v>
       </c>
@@ -15554,11 +15605,11 @@
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K19" s="18"/>
@@ -15573,7 +15624,7 @@
       <c r="Q19" s="100"/>
       <c r="R19" s="101"/>
     </row>
-    <row r="20" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>15</v>
       </c>
@@ -15588,11 +15639,11 @@
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K20" s="18"/>
@@ -15607,7 +15658,7 @@
       <c r="Q20" s="100"/>
       <c r="R20" s="101"/>
     </row>
-    <row r="21" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>16</v>
       </c>
@@ -15622,11 +15673,11 @@
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="22">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K21" s="18"/>
@@ -15641,7 +15692,7 @@
       <c r="Q21" s="100"/>
       <c r="R21" s="101"/>
     </row>
-    <row r="22" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>17</v>
       </c>
@@ -15656,11 +15707,11 @@
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K22" s="18"/>
@@ -15675,7 +15726,7 @@
       <c r="Q22" s="100"/>
       <c r="R22" s="101"/>
     </row>
-    <row r="23" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>18</v>
       </c>
@@ -15690,11 +15741,11 @@
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="22">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K23" s="18"/>
@@ -15709,7 +15760,7 @@
       <c r="Q23" s="100"/>
       <c r="R23" s="101"/>
     </row>
-    <row r="24" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>19</v>
       </c>
@@ -15724,11 +15775,11 @@
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K24" s="18"/>
@@ -15743,7 +15794,7 @@
       <c r="Q24" s="100"/>
       <c r="R24" s="101"/>
     </row>
-    <row r="25" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>20</v>
       </c>
@@ -15758,11 +15809,11 @@
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K25" s="18"/>
@@ -15777,7 +15828,7 @@
       <c r="Q25" s="100"/>
       <c r="R25" s="101"/>
     </row>
-    <row r="26" spans="1:18" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>21</v>
       </c>
@@ -15792,11 +15843,11 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="22">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K26" s="18"/>
@@ -15811,7 +15862,7 @@
       <c r="Q26" s="100"/>
       <c r="R26" s="101"/>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>22</v>
       </c>
@@ -15826,11 +15877,11 @@
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K27" s="18"/>
@@ -15845,7 +15896,7 @@
       <c r="Q27" s="106"/>
       <c r="R27" s="107"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>23</v>
       </c>
@@ -15860,11 +15911,11 @@
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K28" s="18"/>
@@ -15879,7 +15930,7 @@
       <c r="Q28" s="106"/>
       <c r="R28" s="107"/>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>24</v>
       </c>
@@ -15894,11 +15945,11 @@
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K29" s="18"/>
@@ -15913,7 +15964,7 @@
       <c r="Q29" s="106"/>
       <c r="R29" s="107"/>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>25</v>
       </c>
@@ -15928,11 +15979,11 @@
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K30" s="18"/>
@@ -15947,7 +15998,7 @@
       <c r="Q30" s="106"/>
       <c r="R30" s="107"/>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>26</v>
       </c>
@@ -15962,11 +16013,11 @@
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K31" s="18"/>
@@ -15981,7 +16032,7 @@
       <c r="Q31" s="106"/>
       <c r="R31" s="107"/>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>27</v>
       </c>
@@ -15996,11 +16047,11 @@
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K32" s="18"/>
@@ -16015,7 +16066,7 @@
       <c r="Q32" s="106"/>
       <c r="R32" s="107"/>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>28</v>
       </c>
@@ -16030,11 +16081,11 @@
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K33" s="18"/>
@@ -16049,7 +16100,7 @@
       <c r="Q33" s="106"/>
       <c r="R33" s="107"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>29</v>
       </c>
@@ -16064,11 +16115,11 @@
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K34" s="18"/>
@@ -16083,7 +16134,7 @@
       <c r="Q34" s="106"/>
       <c r="R34" s="107"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>30</v>
       </c>
@@ -16093,16 +16144,16 @@
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="16">
-        <f t="shared" ref="G35:G47" si="8">SUM(E35*F35)</f>
+        <f t="shared" ref="G35:G47" si="9">SUM(E35*F35)</f>
         <v>0</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K35" s="18"/>
@@ -16117,7 +16168,7 @@
       <c r="Q35" s="106"/>
       <c r="R35" s="107"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>31</v>
       </c>
@@ -16127,16 +16178,16 @@
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K36" s="18"/>
@@ -16151,7 +16202,7 @@
       <c r="Q36" s="106"/>
       <c r="R36" s="107"/>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>32</v>
       </c>
@@ -16161,16 +16212,16 @@
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K37" s="18"/>
@@ -16185,7 +16236,7 @@
       <c r="Q37" s="106"/>
       <c r="R37" s="107"/>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>33</v>
       </c>
@@ -16195,16 +16246,16 @@
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K38" s="18"/>
@@ -16219,7 +16270,7 @@
       <c r="Q38" s="106"/>
       <c r="R38" s="107"/>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>34</v>
       </c>
@@ -16229,16 +16280,16 @@
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K39" s="18"/>
@@ -16253,7 +16304,7 @@
       <c r="Q39" s="106"/>
       <c r="R39" s="107"/>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>35</v>
       </c>
@@ -16263,16 +16314,16 @@
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K40" s="18"/>
@@ -16287,7 +16338,7 @@
       <c r="Q40" s="106"/>
       <c r="R40" s="107"/>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>36</v>
       </c>
@@ -16297,16 +16348,16 @@
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K41" s="18"/>
@@ -16321,7 +16372,7 @@
       <c r="Q41" s="106"/>
       <c r="R41" s="107"/>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>37</v>
       </c>
@@ -16331,16 +16382,16 @@
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K42" s="18"/>
@@ -16355,7 +16406,7 @@
       <c r="Q42" s="106"/>
       <c r="R42" s="107"/>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>38</v>
       </c>
@@ -16365,16 +16416,16 @@
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K43" s="18"/>
@@ -16389,7 +16440,7 @@
       <c r="Q43" s="106"/>
       <c r="R43" s="107"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>39</v>
       </c>
@@ -16399,16 +16450,16 @@
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K44" s="18"/>
@@ -16423,7 +16474,7 @@
       <c r="Q44" s="106"/>
       <c r="R44" s="107"/>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>40</v>
       </c>
@@ -16433,16 +16484,16 @@
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K45" s="18"/>
@@ -16457,7 +16508,7 @@
       <c r="Q45" s="106"/>
       <c r="R45" s="107"/>
     </row>
-    <row r="46" spans="1:18" ht="23.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>41</v>
       </c>
@@ -16467,16 +16518,16 @@
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K46" s="18"/>
@@ -16497,7 +16548,7 @@
       <c r="Q46" s="106"/>
       <c r="R46" s="107"/>
     </row>
-    <row r="47" spans="1:18" ht="28.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>42</v>
       </c>
@@ -16507,16 +16558,16 @@
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="25">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K47" s="18"/>
@@ -16534,7 +16585,7 @@
       <c r="Q47" s="116"/>
       <c r="R47" s="117"/>
     </row>
-    <row r="48" spans="1:18" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" s="108" t="s">
         <v>26</v>
@@ -16545,25 +16596,25 @@
       <c r="F48" s="109"/>
       <c r="G48" s="30">
         <f>SUBTOTAL(9,G5:G47)</f>
-        <v>45120</v>
+        <v>46230</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>27</v>
       </c>
       <c r="I48" s="30">
         <f>SUBTOTAL(9,I5:I47)</f>
-        <v>49139</v>
+        <v>50739.999979999993</v>
       </c>
       <c r="J48" s="30">
         <f>SUBTOTAL(9,J5:J47)</f>
-        <v>4019</v>
+        <v>4509.9999799999996</v>
       </c>
       <c r="K48" s="32" t="s">
         <v>27</v>
       </c>
       <c r="L48" s="30">
         <f>SUBTOTAL(9,L5:L47)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M48" s="30">
         <f>SUBTOTAL(9,M5:M47)</f>
@@ -16582,7 +16633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -16598,10 +16649,10 @@
       <c r="O49" s="111"/>
       <c r="P49" s="37">
         <f>+J48</f>
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="39" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4509.9999799999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="34"/>
       <c r="C50" s="35"/>
@@ -16624,7 +16675,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="39" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="40"/>
@@ -16644,10 +16695,10 @@
       <c r="O51" s="113"/>
       <c r="P51" s="41">
         <f>+P49+P50</f>
-        <v>3977</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4467.9999799999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N52" s="112" t="s">
         <v>17</v>
       </c>
@@ -16657,26 +16708,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N53" s="114" t="s">
         <v>31</v>
       </c>
       <c r="O53" s="115"/>
       <c r="P53" s="42">
         <f>+P51+P52</f>
-        <v>3977</v>
+        <v>4467.9999799999996</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K53">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="โกโก้"/>
-        <filter val="ไฟเบอร์"/>
-        <filter val="กาแฟ"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:K53"/>
   <mergeCells count="52">
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="A1:R1"/>
@@ -16748,8 +16791,8 @@
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
